--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6781B-1C36-417F-99B8-C723E6EF79BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE188A7-81F9-421B-8D0F-F9CF6BB79378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12552" yWindow="36" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$188</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铺页面1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脑袋疼0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,14 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>换成动态0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航0.3+图片上传0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请航哥吃饭0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,14 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4+旗哥需求0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毕设数据库0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,23 +428,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>听网课1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录视频大扫除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>混0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>放年假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕设资料0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录视频大扫除1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,11 +564,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH187"/>
+  <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -939,54 +950,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="11" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="13" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1074,161 +1085,188 @@
       <c r="AE2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>8.15</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>8.16</v>
+        <v>8.15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.5</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
+        <v>8.16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>8.17</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>8.18</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>8.19</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="F7" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>8.1999999999999993</v>
+        <v>8.19</v>
       </c>
       <c r="F8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>8.2100000000000009</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.2</v>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>8.23</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="1">
         <v>0.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
+        <v>8.23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>8.24</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>8.25</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>8.26</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>8.27</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.2</v>
+        <v>8.26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
+        <v>8.27</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>8.2799999999999994</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>8.2899999999999991</v>
       </c>
       <c r="K17" s="1">
         <v>0.8</v>
@@ -1237,9 +1275,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="K18" s="1">
         <v>0.8</v>
@@ -1248,148 +1286,149 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>8.31</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>9.01</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>9.02</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <v>0.8</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>9.0299999999999994</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="N23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>0.2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J24" s="1">
         <v>0.2</v>
       </c>
-      <c r="K23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>9.06</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>0.3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>9.07</v>
       </c>
       <c r="F26" s="1">
         <v>0.3</v>
       </c>
       <c r="K26" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>9.07</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K27" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="28" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>9.08</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>9.09</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>9.1</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>9.11</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>9.1199999999999992</v>
       </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="O32" s="8">
+      <c r="K32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>9.14</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1399,7 +1438,7 @@
     </row>
     <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>9.15</v>
+        <v>9.14</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1407,101 +1446,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>9.16</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.5</v>
+        <v>9.15</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="O35" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>9.17</v>
+        <v>9.16</v>
       </c>
       <c r="K36" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>9.18</v>
+        <v>9.17</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.8</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>9.19</v>
+        <v>9.18</v>
       </c>
       <c r="P38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.4</v>
+        <v>9.19</v>
       </c>
       <c r="P39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="1">
         <v>0.3</v>
       </c>
-      <c r="S39" s="1">
-        <v>0.3</v>
+      <c r="R39" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>9.2100000000000009</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>0.8</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>9.2200000000000006</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>9.23</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>9.24</v>
+        <v>9.23</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" s="6">
         <v>0.5</v>
@@ -1509,7 +1547,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>9.25</v>
+        <v>9.24</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>73</v>
@@ -1520,23 +1558,26 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>9.26</v>
+        <v>9.25</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>9.2799999999999994</v>
+        <v>9.27</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>72</v>
@@ -1544,27 +1585,23 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>9.2899999999999991</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="T49" s="8">
-        <v>0.5</v>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>10.01</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>76</v>
@@ -1576,25 +1613,28 @@
     </row>
     <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>10.02</v>
+        <v>10.01</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
+      <c r="T51" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>10.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>10.039999999999999</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>78</v>
@@ -1603,633 +1643,631 @@
     </row>
     <row r="54" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>10.050000000000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
+        <v>10.06</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>10.07</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>10.08</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T57" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>10.09</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>19</v>
+        <v>10.08</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.7</v>
       </c>
       <c r="T58" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U58" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="E59" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T59" s="1">
         <v>0.5</v>
       </c>
       <c r="U59" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>10.11</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>21</v>
+        <v>10.1</v>
       </c>
       <c r="E60" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U60" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
+        <v>10.11</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>10.119999999999999</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="63" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>10.14</v>
-      </c>
-      <c r="U63" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="V63" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <v>10.15</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>25</v>
+        <v>10.14</v>
       </c>
       <c r="U64" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="V64" s="1">
         <v>0.4</v>
       </c>
-      <c r="V64" s="1">
-        <v>0.2</v>
-      </c>
       <c r="W64" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>10.16</v>
+        <v>10.15</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U65" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="X65" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>10.17</v>
+        <v>10.16</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0.3</v>
       </c>
       <c r="X66" s="1">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <v>10.18</v>
+        <v>10.17</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X67" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
+        <v>10.18</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>10.19</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y68" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="Y69" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="Y69" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>0.7</v>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="Y70" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>10.220000000000001</v>
+        <v>10.210000000000001</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="Y71" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>10.23</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>36</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="Y72" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>10.24</v>
+        <v>10.23</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y73" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>10.25</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>1</v>
+        <v>10.24</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
+        <v>10.25</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>10.26</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+    <row r="77" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>10.27</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>10.28</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <v>10.29</v>
+        <v>10.28</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <v>10.3</v>
+        <v>10.29</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>0.7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <v>10.31</v>
+        <v>10.3</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z80" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
+        <v>10.31</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>11.01</v>
       </c>
-      <c r="P81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>11.02</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P82" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="P83" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>11.03</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>11.04</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>11.05</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P86" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>11.06</v>
       </c>
-      <c r="P86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="P87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>11.07</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P87" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="P88" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>11.08</v>
       </c>
-      <c r="Y88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="Y89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>11.09</v>
       </c>
-      <c r="Y89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="Y90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>11.1</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="Y90" s="8">
+      <c r="C91" s="7"/>
+      <c r="Y91" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>11.11</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Y91" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="Y92" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>11.12</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Z92" s="1">
+      <c r="Z93" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>11.13</v>
       </c>
-      <c r="Z93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="Z94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>11.14</v>
       </c>
-      <c r="Z94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="Z95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>11.15</v>
       </c>
-      <c r="Z95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="Z96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>11.16</v>
       </c>
-      <c r="Z96" s="1">
+      <c r="Z97" s="1">
         <v>0.3</v>
       </c>
-      <c r="AA96" s="1">
+      <c r="AA97" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="97" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+    <row r="98" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>11.17</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>11.18</v>
       </c>
-      <c r="AA98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="AA99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>11.19</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>11.2</v>
       </c>
-      <c r="AA100" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB100" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="AA101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>11.21</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AB101" s="1">
+      <c r="AB102" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
         <v>11.22</v>
       </c>
-      <c r="AC102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="AC103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>11.23</v>
       </c>
-      <c r="AC103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="AC104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
         <v>11.24</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
         <v>11.25</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B106" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC105" s="1">
+      <c r="AC106" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
         <v>11.26</v>
       </c>
-      <c r="AC106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="AC107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
         <v>11.27</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C108" s="6">
         <v>0.3</v>
       </c>
-      <c r="T107" s="1">
+      <c r="T108" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
         <v>11.28</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K109" s="1">
         <v>0.2</v>
       </c>
-      <c r="S108" s="1">
+      <c r="S109" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD108" s="1">
+      <c r="AD109" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>11.29</v>
       </c>
-      <c r="AD109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="AD110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
         <v>11.3</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="R110" s="1">
+      <c r="R111" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+    <row r="112" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>12.01</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B112" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>12.02</v>
-      </c>
-      <c r="C112" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AE112" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>12.03</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>57</v>
+        <v>12.02</v>
       </c>
       <c r="C113" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AE113" s="1">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0.5</v>
       </c>
       <c r="AE114" s="1">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>12.05</v>
+        <v>12.04</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE115" s="1">
         <v>0.7</v>
@@ -2237,77 +2275,71 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>12.06</v>
-      </c>
-      <c r="E116" s="1">
-        <v>0.4</v>
+        <v>12.05</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="AE116" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
+        <v>12.06</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AE117" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
         <v>12.07</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AE117" s="1">
+      <c r="AE118" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="118" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+    <row r="119" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>12.08</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>12.09</v>
-      </c>
-      <c r="AE119" s="1">
-        <v>1</v>
-      </c>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>56</v>
+        <v>12.09</v>
       </c>
       <c r="AE120" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>12.11</v>
-      </c>
-      <c r="C121" s="6">
-        <v>0.5</v>
+        <v>12.1</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="AE121" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>12.12</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>66</v>
+        <v>12.11</v>
       </c>
       <c r="C122" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AE122" s="1">
         <v>0.5</v>
@@ -2315,49 +2347,55 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>12.13</v>
+        <v>12.12</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.2</v>
       </c>
       <c r="AE123" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
+        <v>12.13</v>
+      </c>
+      <c r="AE124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
         <v>12.14</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>0.2</v>
       </c>
-      <c r="AE124" s="1">
+      <c r="AE125" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="125" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+    <row r="126" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>12.15</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B126" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>12.16</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE126" s="1">
-        <v>0.7</v>
-      </c>
+      <c r="C126" s="7"/>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE127" s="1">
         <v>0.7</v>
@@ -2365,165 +2403,168 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>12.18</v>
+        <v>12.17</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="AE128" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>12.19</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>57</v>
+        <v>12.18</v>
       </c>
       <c r="AE129" s="1">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AE130" s="1">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE131" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>12.21</v>
       </c>
-      <c r="AG131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+      <c r="AG132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
         <v>12.22</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B133" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>12.23</v>
-      </c>
-      <c r="AG133" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>12.24</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C134" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P134" s="1">
-        <v>0.4</v>
+        <v>12.23</v>
+      </c>
+      <c r="AG134" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="C135" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <v>12.26</v>
-      </c>
-      <c r="P136" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AF136" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AG136" s="1" t="s">
-        <v>94</v>
+        <v>12.25</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <v>12.27</v>
+        <v>12.26</v>
       </c>
       <c r="P137" s="1">
         <v>0.3</v>
       </c>
-      <c r="AG137" s="1" t="s">
-        <v>95</v>
+      <c r="AF137" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AG137" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
+        <v>12.27</v>
+      </c>
+      <c r="P138" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AG138" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
         <v>12.28</v>
       </c>
-      <c r="AG138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="AG139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
         <v>12.29</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="AG139" s="8">
+      <c r="B140" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="AG140" s="8">
         <v>0.7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>12.3</v>
-      </c>
-      <c r="AG140" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="AG141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>12.31</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG141" s="1">
+      <c r="B142" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG142" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="142" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+    <row r="143" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <v>1.01</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C142" s="7"/>
-    </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="AG143" s="1">
-        <v>1</v>
-      </c>
+      <c r="B143" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" s="7"/>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AG144" s="1">
         <v>1</v>
@@ -2531,303 +2572,319 @@
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
         <v>1.04</v>
       </c>
-      <c r="AG145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="AG146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
         <v>1.05</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="T147" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AG147" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AH147" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>1.07</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH148" s="1" t="s">
-        <v>101</v>
+        <v>1.06</v>
+      </c>
+      <c r="T148" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH148" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>1.08</v>
+        <v>1.07</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="AH149" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>102</v>
+        <v>1.08</v>
       </c>
       <c r="AH150" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="AH151" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="B153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="153" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+    <row r="154" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AH154" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B154" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C154" s="7"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E155" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AH155" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>108</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E156" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
         <v>1.17</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>1.18</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C159" s="7"/>
+      <c r="B159" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="160" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
         <v>2.02</v>
       </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="B161" s="14"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E161" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="B163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH163" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="B164" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH164" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
         <v>2.06</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
         <v>2.08</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+    <row r="168" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
         <v>2.09</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
         <v>2.1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
         <v>2.11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
         <v>2.12</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
         <v>2.13</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
         <v>2.14</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
         <v>2.15</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
+    <row r="175" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
         <v>2.16</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
         <v>2.17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
-        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
         <v>2.23</v>
       </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>2.23999999999999</v>
-      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <v>2.25</v>
+        <v>2.23999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <v>2.25999999999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <v>2.27</v>
+        <v>2.25999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <v>2.27999999999999</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
+        <v>2.27999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
         <v>2.2899999999999898</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AE1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B160:B161"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE188A7-81F9-421B-8D0F-F9CF6BB79378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EF319-C06E-46BD-973B-43BB45D17271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信公众号0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毕设资料0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +449,26 @@
   </si>
   <si>
     <t>总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写创业计划书1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.3聊天0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.4听书0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +597,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,14 +945,14 @@
   <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
@@ -950,8 +972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -996,8 +1018,8 @@
       <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1097,7 +1119,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="9"/>
@@ -2705,14 +2727,14 @@
         <v>1.17</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>1.18</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C160" s="7"/>
@@ -2721,7 +2743,7 @@
       <c r="A161" s="5">
         <v>2.02</v>
       </c>
-      <c r="B161" s="14"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="7"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
@@ -2737,7 +2759,7 @@
         <v>2.04</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH163" s="1">
         <v>0.7</v>
@@ -2748,7 +2770,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AH164" s="1">
         <v>0.5</v>
@@ -2758,22 +2780,43 @@
       <c r="A165" s="5">
         <v>2.06</v>
       </c>
+      <c r="B165" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH165" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="B166" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15">
         <v>2.08</v>
       </c>
+      <c r="B167" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="14"/>
     </row>
     <row r="168" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2.09</v>
       </c>
-      <c r="B168" s="7"/>
+      <c r="B168" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="C168" s="7"/>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EF319-C06E-46BD-973B-43BB45D17271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B9DE3-BE3D-477B-83BD-CBC9BF1E400A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,42 @@
   </si>
   <si>
     <t>公众号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论创业项目0.5混0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书0.3听自然之声0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情地图0.6东港0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看电影0.5讨论项目0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号策划0.5混0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.5混0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.5毕设0.2写书0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.3混0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,22 +571,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,43 +607,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,15 +990,15 @@
   <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="8.88671875" style="1" customWidth="1"/>
@@ -971,195 +1016,291 @@
     <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="19" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="2" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+    </row>
+    <row r="2" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AH2" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15">
+        <f>SUM(C4:C179)</f>
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:AH3" si="0">SUM(D4:D179)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+      <c r="L3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="15">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="P3" s="15">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="T3" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="U3" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="V3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="W3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y3" s="15">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="Z3" s="15">
+        <f t="shared" si="0"/>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="AA3" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="AC3" s="15">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="AD3" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="AE3" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="AF3" s="15">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
+      <c r="AG3" s="15">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AH3" s="15">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>8.15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.5</v>
       </c>
       <c r="E4" s="1">
@@ -1167,7 +1308,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>8.16</v>
       </c>
       <c r="E5" s="1">
@@ -1175,25 +1316,25 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>8.17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>8.18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="F7" s="8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>8.19</v>
       </c>
       <c r="F8" s="1">
@@ -1207,7 +1348,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="F9" s="1">
@@ -1218,7 +1359,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>8.2100000000000009</v>
       </c>
       <c r="F10" s="1">
@@ -1226,7 +1367,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>8.2200000000000006</v>
       </c>
       <c r="D11" s="1">
@@ -1240,7 +1381,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>8.23</v>
       </c>
       <c r="D12" s="1">
@@ -1251,24 +1392,24 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>8.24</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>8.25</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>8.26</v>
       </c>
       <c r="D15" s="1">
@@ -1276,10 +1417,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>8.27</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>0.8</v>
       </c>
       <c r="J16" s="1">
@@ -1287,7 +1428,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>8.2799999999999994</v>
       </c>
       <c r="K17" s="1">
@@ -1298,7 +1439,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>8.2899999999999991</v>
       </c>
       <c r="K18" s="1">
@@ -1309,7 +1450,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="K19" s="1">
@@ -1320,25 +1461,25 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>8.31</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>9.01</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="8">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>9.02</v>
       </c>
       <c r="K22" s="1">
@@ -1349,10 +1490,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>9.0299999999999994</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N23" s="1">
@@ -1360,10 +1501,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>9.0399999999999991</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>0.2</v>
       </c>
       <c r="J24" s="1">
@@ -1377,15 +1518,15 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>9.0500000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>9.06</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>0.3</v>
       </c>
       <c r="F26" s="1">
@@ -1396,7 +1537,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>9.07</v>
       </c>
       <c r="F27" s="1">
@@ -1406,18 +1547,18 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>9.08</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="K28" s="8">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="K28" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>9.09</v>
       </c>
       <c r="K29" s="1">
@@ -1425,7 +1566,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>9.1</v>
       </c>
       <c r="K30" s="1">
@@ -1433,7 +1574,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>9.11</v>
       </c>
       <c r="K31" s="1">
@@ -1441,45 +1582,45 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>9.1199999999999992</v>
       </c>
       <c r="K32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>9.1300000000000008</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="O33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="O33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>9.14</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="O34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>9.15</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="O35" s="8">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="O35" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>9.16</v>
       </c>
       <c r="K36" s="1">
@@ -1490,7 +1631,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>9.17</v>
       </c>
       <c r="K37" s="1">
@@ -1501,7 +1642,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>9.18</v>
       </c>
       <c r="P38" s="1">
@@ -1509,7 +1650,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>9.19</v>
       </c>
       <c r="P39" s="1">
@@ -1523,7 +1664,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="C40" s="1">
@@ -1537,7 +1678,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>9.2100000000000009</v>
       </c>
       <c r="C41" s="1">
@@ -1547,163 +1688,163 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>9.2200000000000006</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>9.23</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>9.24</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>9.25</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>9.26</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>9.27</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>9.2799999999999994</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>9.2899999999999991</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+    <row r="50" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="T50" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="C50" s="4"/>
+      <c r="T50" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>10.01</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="T51" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="C51" s="4"/>
+      <c r="T51" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>10.02</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>10.029999999999999</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>10.039999999999999</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>10.050000000000001</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>10.06</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>10.07</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>10.08</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>0.7</v>
       </c>
       <c r="T58" s="1">
@@ -1711,10 +1852,10 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>10.09</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="T59" s="1">
@@ -1725,7 +1866,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="2">
         <v>10.1</v>
       </c>
       <c r="E60" s="1">
@@ -1736,10 +1877,10 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>10.11</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="1">
@@ -1750,27 +1891,27 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="2">
         <v>10.119999999999999</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+    <row r="63" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>10.130000000000001</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="2">
         <v>10.14</v>
       </c>
       <c r="U64" s="1">
@@ -1784,10 +1925,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="2">
         <v>10.15</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>25</v>
       </c>
       <c r="U65" s="1">
@@ -1801,10 +1942,10 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="2">
         <v>10.16</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>30</v>
       </c>
       <c r="U66" s="1">
@@ -1815,10 +1956,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="2">
         <v>10.17</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>31</v>
       </c>
       <c r="X67" s="1">
@@ -1826,10 +1967,10 @@
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="2">
         <v>10.18</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>32</v>
       </c>
       <c r="X68" s="1">
@@ -1837,31 +1978,31 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="2">
         <v>10.19</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Y69" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+    <row r="70" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="Y70" s="8">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="Y70" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="2">
         <v>10.210000000000001</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Y71" s="1">
@@ -1869,7 +2010,7 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="2">
         <v>10.220000000000001</v>
       </c>
       <c r="Y72" s="1">
@@ -1877,10 +2018,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>10.23</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Y73" s="1">
@@ -1888,10 +2029,10 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="2">
         <v>10.24</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="Y74" s="1">
@@ -1899,7 +2040,7 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="2">
         <v>10.25</v>
       </c>
       <c r="Z75" s="1">
@@ -1907,43 +2048,43 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>10.26</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+    <row r="77" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>10.27</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="2">
         <v>10.28</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="2">
         <v>10.29</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="2">
         <v>10.3</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>44</v>
       </c>
       <c r="Z80" s="1">
@@ -1951,10 +2092,10 @@
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="2">
         <v>10.31</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>45</v>
       </c>
       <c r="Z81" s="1">
@@ -1962,7 +2103,7 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="2">
         <v>11.01</v>
       </c>
       <c r="P82" s="1">
@@ -1970,38 +2111,38 @@
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>11.02</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P83" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+    <row r="84" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>11.03</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="7"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="2">
         <v>11.04</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>11.05</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P86" s="1">
@@ -2009,7 +2150,7 @@
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="2">
         <v>11.06</v>
       </c>
       <c r="P87" s="1">
@@ -2017,10 +2158,10 @@
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="2">
         <v>11.07</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P88" s="1">
@@ -2028,7 +2169,7 @@
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="2">
         <v>11.08</v>
       </c>
       <c r="Y89" s="1">
@@ -2036,30 +2177,30 @@
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="2">
         <v>11.09</v>
       </c>
       <c r="Y90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="91" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>11.1</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="Y91" s="8">
+      <c r="C91" s="4"/>
+      <c r="Y91" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="2">
         <v>11.11</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>52</v>
       </c>
       <c r="Y92" s="1">
@@ -2067,10 +2208,10 @@
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="2">
         <v>11.12</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Z93" s="1">
@@ -2078,7 +2219,7 @@
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="2">
         <v>11.13</v>
       </c>
       <c r="Z94" s="1">
@@ -2086,7 +2227,7 @@
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="2">
         <v>11.14</v>
       </c>
       <c r="Z95" s="1">
@@ -2094,7 +2235,7 @@
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>11.15</v>
       </c>
       <c r="Z96" s="1">
@@ -2102,7 +2243,7 @@
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="2">
         <v>11.16</v>
       </c>
       <c r="Z97" s="1">
@@ -2112,17 +2253,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+    <row r="98" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
         <v>11.17</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="7"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="2">
         <v>11.18</v>
       </c>
       <c r="AA99" s="1">
@@ -2130,15 +2271,15 @@
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="2">
         <v>11.19</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>11.2</v>
       </c>
       <c r="AA101" s="1">
@@ -2149,10 +2290,10 @@
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="2">
         <v>11.21</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AB102" s="1">
@@ -2160,7 +2301,7 @@
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="2">
         <v>11.22</v>
       </c>
       <c r="AC103" s="1">
@@ -2168,27 +2309,27 @@
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>11.23</v>
       </c>
       <c r="AC104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+    <row r="105" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
         <v>11.24</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="7"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="2">
         <v>11.25</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="3" t="s">
         <v>57</v>
       </c>
       <c r="AC106" s="1">
@@ -2196,7 +2337,7 @@
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>11.26</v>
       </c>
       <c r="AC107" s="1">
@@ -2204,13 +2345,13 @@
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="2">
         <v>11.27</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="3">
         <v>0.3</v>
       </c>
       <c r="T108" s="1">
@@ -2218,7 +2359,7 @@
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>11.28</v>
       </c>
       <c r="K109" s="1">
@@ -2232,7 +2373,7 @@
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="2">
         <v>11.29</v>
       </c>
       <c r="AD110" s="1">
@@ -2240,249 +2381,249 @@
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="2">
         <v>11.3</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R111" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+    <row r="112" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>12.01</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>12.02</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="3">
         <v>0.2</v>
       </c>
       <c r="AE113" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>12.03</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="3">
         <v>0.5</v>
       </c>
       <c r="AE114" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>12.04</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AE115" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>12.05</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AE116" s="1">
+      <c r="AF116" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>12.06</v>
       </c>
       <c r="E117" s="1">
         <v>0.4</v>
       </c>
-      <c r="AE117" s="1">
+      <c r="AF117" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>12.07</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE118" s="1">
+      <c r="AF118" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+    <row r="119" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>12.08</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>12.09</v>
       </c>
-      <c r="AE120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="AF120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>12.1</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE121" s="1">
+      <c r="AF121" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>12.11</v>
       </c>
-      <c r="C122" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE122" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="C122" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AF122" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>12.12</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="3">
         <v>0.2</v>
       </c>
       <c r="I123" s="1">
         <v>0.2</v>
       </c>
-      <c r="AE123" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="AF123" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>12.13</v>
       </c>
-      <c r="AE124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="AF124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>12.14</v>
       </c>
       <c r="E125" s="1">
         <v>0.2</v>
       </c>
-      <c r="AE125" s="1">
+      <c r="AF125" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+    <row r="126" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>12.15</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>12.16</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE127" s="1">
+      <c r="AF127" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>12.17</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AE128" s="1">
+      <c r="AF128" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>12.18</v>
       </c>
-      <c r="AE129" s="1">
+      <c r="AF129" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="2">
         <v>12.19</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AE130" s="1">
+      <c r="AF130" s="1">
         <v>0.7</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="A131" s="2">
         <v>12.2</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE131" s="1">
+      <c r="AF131" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>12.21</v>
       </c>
       <c r="AG132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+    <row r="133" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
         <v>12.22</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>12.23</v>
       </c>
       <c r="AG134" s="1">
@@ -2490,13 +2631,13 @@
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="A135" s="2">
         <v>12.24</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="3">
         <v>0.3</v>
       </c>
       <c r="P135" s="1">
@@ -2504,15 +2645,15 @@
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="A136" s="2">
         <v>12.25</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>12.26</v>
       </c>
       <c r="P137" s="1">
@@ -2526,7 +2667,7 @@
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+      <c r="A138" s="2">
         <v>12.27</v>
       </c>
       <c r="P138" s="1">
@@ -2537,27 +2678,27 @@
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="2">
         <v>12.28</v>
       </c>
       <c r="AG139" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+    <row r="140" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>12.29</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="AG140" s="8">
+      <c r="C140" s="4"/>
+      <c r="AG140" s="5">
         <v>0.7</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="A141" s="2">
         <v>12.3</v>
       </c>
       <c r="AG141" s="1">
@@ -2565,27 +2706,27 @@
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+      <c r="A142" s="2">
         <v>12.31</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="3" t="s">
         <v>95</v>
       </c>
       <c r="AG142" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="143" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+    <row r="143" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
         <v>1.01</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C143" s="7"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+      <c r="A144" s="2">
         <v>1.02</v>
       </c>
       <c r="AG144" s="1">
@@ -2593,7 +2734,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="2">
         <v>1.03</v>
       </c>
       <c r="AG145" s="1">
@@ -2601,22 +2742,22 @@
       </c>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="A146" s="2">
         <v>1.04</v>
       </c>
       <c r="AG146" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+    <row r="147" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
         <v>1.05</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
+      <c r="A148" s="2">
         <v>1.06</v>
       </c>
       <c r="T148" s="1">
@@ -2630,10 +2771,10 @@
       </c>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="A149" s="2">
         <v>1.07</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AH149" s="1">
@@ -2641,7 +2782,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+      <c r="A150" s="2">
         <v>1.08</v>
       </c>
       <c r="AH150" s="1">
@@ -2649,10 +2790,10 @@
       </c>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="A151" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="3" t="s">
         <v>97</v>
       </c>
       <c r="AH151" s="1">
@@ -2660,7 +2801,7 @@
       </c>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
+      <c r="A152" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="AH152" s="1">
@@ -2668,27 +2809,27 @@
       </c>
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="A153" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E153" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="154" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
+    <row r="154" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="7"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+      <c r="A155" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="AH155" s="1">
@@ -2696,7 +2837,7 @@
       </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+      <c r="A156" s="2">
         <v>1.1399999999999999</v>
       </c>
       <c r="E156" s="1">
@@ -2704,10 +2845,10 @@
       </c>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E157" s="1">
@@ -2715,39 +2856,39 @@
       </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+      <c r="A158" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="A159" s="2">
         <v>1.17</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+    <row r="160" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>1.18</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>2.02</v>
       </c>
-      <c r="B161" s="21"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="A162" s="2">
         <v>2.0299999999999998</v>
       </c>
       <c r="E162" s="1">
@@ -2755,10 +2896,10 @@
       </c>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="A163" s="2">
         <v>2.04</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="3" t="s">
         <v>103</v>
       </c>
       <c r="AH163" s="1">
@@ -2766,10 +2907,10 @@
       </c>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="A164" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="3" t="s">
         <v>109</v>
       </c>
       <c r="AH164" s="1">
@@ -2777,10 +2918,10 @@
       </c>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="A165" s="2">
         <v>2.06</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E165" s="1">
@@ -2791,135 +2932,173 @@
       </c>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+      <c r="A166" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E166" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
+    <row r="167" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
         <v>2.08</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C167" s="14"/>
-    </row>
-    <row r="168" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>2.09</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="A169" s="2">
         <v>2.1</v>
       </c>
+      <c r="B169" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+      <c r="A170" s="2">
         <v>2.11</v>
       </c>
+      <c r="B170" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH170" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+      <c r="A171" s="2">
         <v>2.12</v>
       </c>
+      <c r="B171" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH171" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+      <c r="A172" s="2">
         <v>2.13</v>
       </c>
+      <c r="B172" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+      <c r="A173" s="2">
         <v>2.14</v>
       </c>
+      <c r="B173" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
+      <c r="A174" s="2">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="175" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+      <c r="B174" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>2.16</v>
       </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
+      <c r="A176" s="2">
         <v>2.17</v>
       </c>
+      <c r="B176" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
+      <c r="A177" s="2">
         <v>2.1800000000000002</v>
       </c>
+      <c r="B177" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
+      <c r="A178" s="2">
         <v>2.19</v>
       </c>
+      <c r="B178" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
+      <c r="A179" s="2">
         <v>2.2000000000000002</v>
       </c>
+      <c r="B179" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
+      <c r="A180" s="2">
         <v>2.21</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+      <c r="A181" s="2">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
+    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>2.23</v>
       </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+      <c r="A183" s="2">
         <v>2.23999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
+      <c r="A184" s="2">
         <v>2.25</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
+      <c r="A185" s="2">
         <v>2.25999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
+      <c r="A186" s="2">
         <v>2.27</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
+      <c r="A187" s="2">
         <v>2.27999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
+      <c r="A188" s="2">
         <v>2.2899999999999898</v>
       </c>
     </row>
@@ -2939,12 +3118,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B9DE3-BE3D-477B-83BD-CBC9BF1E400A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C703A0F-D5C1-4946-AFDC-6D4A6192DBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,26 @@
   </si>
   <si>
     <t>公众号0.3混0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.2电影0.6混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕设0.4公众号0.4混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.7混0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打字0.4毕设0.3混0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打字0.3混0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,12 +633,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +661,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,8 +1010,8 @@
   <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1016,282 +1036,282 @@
     <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="12" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="13" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-    </row>
-    <row r="2" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="15" t="s">
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+    </row>
+    <row r="2" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="15">
+      <c r="B3" s="17"/>
+      <c r="C3" s="13">
         <f>SUM(C4:C179)</f>
         <v>8.2000000000000011</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <f t="shared" ref="D3:AH3" si="0">SUM(D4:D179)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <f t="shared" si="0"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <f t="shared" si="0"/>
         <v>11.3</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="13">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="13">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="13">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="13">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="13">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="13">
         <f t="shared" si="0"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="13">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="13">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="13">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="13">
         <f t="shared" si="0"/>
         <v>7.1000000000000005</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="13">
         <f t="shared" si="0"/>
         <v>6.3999999999999995</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="13">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="13">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="13">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="13">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AE3" s="13">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AF3" s="13">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AG3" s="13">
         <f t="shared" si="0"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="13">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
@@ -2875,7 +2895,7 @@
       <c r="A160" s="2">
         <v>1.18</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C160" s="4"/>
@@ -2884,7 +2904,7 @@
       <c r="A161" s="2">
         <v>2.02</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
@@ -3059,27 +3079,41 @@
       <c r="A180" s="2">
         <v>2.21</v>
       </c>
+      <c r="B180" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2.2200000000000002</v>
       </c>
+      <c r="B181" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2.23</v>
       </c>
-      <c r="B182" s="4"/>
+      <c r="B182" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2.23999999999999</v>
       </c>
+      <c r="B183" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2.25</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C703A0F-D5C1-4946-AFDC-6D4A6192DBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B64FB2-D420-464D-A3DA-C06FFCF3BE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,11 +520,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打字0.4毕设0.3混0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打字0.3混0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.4听书0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打字0.3公众号0.4面试题0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历0.4家务0.3混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历0.4公众号0.3混0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打字0.4毕设0.3看书0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,14 +1026,14 @@
   <dimension ref="A1:AH188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="2" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
@@ -3051,7 +3067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2.1800000000000002</v>
       </c>
@@ -3059,7 +3075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2.19</v>
       </c>
@@ -3067,7 +3083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -3075,7 +3091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2.21</v>
       </c>
@@ -3083,15 +3099,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2.2200000000000002</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2.23</v>
       </c>
@@ -3100,7 +3116,7 @@
       </c>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2.23999999999999</v>
       </c>
@@ -3108,32 +3124,50 @@
         <v>121</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2.25</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2.25999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>2.27999999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH187" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>2.2899999999999898</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH188" s="1">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B64FB2-D420-464D-A3DA-C06FFCF3BE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726C04D-7CBC-49A2-A574-7BF7AE0FD2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,30 @@
   </si>
   <si>
     <t>打字0.4毕设0.3看书0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.4听书0.3混0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.5改策划0.3混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历0.3视频会议0.1公众号0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.2家务0.3混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.3解决问题0.3混0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.3解决问题0.4混0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,6 +701,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH188"/>
+  <dimension ref="A1:AH219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L190" sqref="L190"/>
+      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1053,8 +1080,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1099,8 +1126,8 @@
       <c r="AH1" s="11"/>
     </row>
     <row r="2" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2911,7 +2938,7 @@
       <c r="A160" s="2">
         <v>1.18</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C160" s="4"/>
@@ -2920,7 +2947,7 @@
       <c r="A161" s="2">
         <v>2.02</v>
       </c>
-      <c r="B161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
@@ -3168,6 +3195,195 @@
       </c>
       <c r="AH188" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>3.01</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C189" s="18"/>
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>3.03</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH191" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH192" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH193" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>3.06</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>3.07</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A204" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>3.2500000000000102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
+        <v>3.26000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>3.2700000000000098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7">
+        <v>3.28000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
+        <v>3.2900000000000098</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
+        <v>3.30000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>3.3100000000000098</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726C04D-7CBC-49A2-A574-7BF7AE0FD2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942E2AC-5BF2-4EFB-A59A-9364A1B86C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>公众号0.3解决问题0.4混0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.3混0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,9 +1056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG183" sqref="AG183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3274,6 +3278,12 @@
     <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>3.09</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH197" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="198" spans="1:34" x14ac:dyDescent="0.25">

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942E2AC-5BF2-4EFB-A59A-9364A1B86C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24EF99-1052-4CA8-A49F-DD35CC6C7CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -569,6 +569,54 @@
   </si>
   <si>
     <t>公众号0.3混0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号0.2混0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网课0.4混0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网课0.4录音0.4混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网课0.2公众号0.3录音0.3混0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去新民1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男神生日0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大姑家0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书0.3混0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书0.5混0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,6 +753,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,9 +1107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG183" sqref="AG183"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1084,8 +1135,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1130,8 +1181,8 @@
       <c r="AH1" s="11"/>
     </row>
     <row r="2" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2942,7 +2993,7 @@
       <c r="A160" s="2">
         <v>1.18</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C160" s="4"/>
@@ -2951,7 +3002,7 @@
       <c r="A161" s="2">
         <v>2.02</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
@@ -3267,13 +3318,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>3.08</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="C196" s="19"/>
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
@@ -3290,108 +3342,173 @@
       <c r="A198" s="7">
         <v>3.1</v>
       </c>
+      <c r="B198" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>3.11</v>
       </c>
+      <c r="B199" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>3.12</v>
       </c>
+      <c r="B200" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>3.13</v>
       </c>
+      <c r="B201" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B202" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>3.15</v>
       </c>
+      <c r="B203" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C203" s="19"/>
     </row>
     <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>3.16</v>
       </c>
+      <c r="B204" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>3.17</v>
       </c>
+      <c r="B205" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH205" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>3.18</v>
       </c>
+      <c r="B206" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH206" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>3.19</v>
       </c>
+      <c r="B207" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH207" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH208" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH209" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C210" s="19"/>
+      <c r="AH210" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>3.2500000000000102</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>3.26000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>3.2700000000000098</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>3.28000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>3.2900000000000098</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>3.30000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>3.3100000000000098</v>
       </c>

--- a/_posts/个人分享/进度.xlsx
+++ b/_posts/个人分享/进度.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24EF99-1052-4CA8-A49F-DD35CC6C7CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CAFBDD-0D8E-4FA6-A09C-483058FC8891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="150">
   <si>
     <t>vim</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,14 @@
   </si>
   <si>
     <t>听书0.5混0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书0.5公众号0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书0.2混0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,7 +1117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
+      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3482,10 +3490,19 @@
       <c r="A213" s="7">
         <v>3.2500000000000102</v>
       </c>
+      <c r="B213" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>3.26000000000001</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH214" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.25">
